--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H2">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I2">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J2">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N2">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P2">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q2">
-        <v>47.78981534013512</v>
+        <v>63.03249130951067</v>
       </c>
       <c r="R2">
-        <v>430.1083380612161</v>
+        <v>567.292421785596</v>
       </c>
       <c r="S2">
-        <v>0.0289462269655325</v>
+        <v>0.02467116541677944</v>
       </c>
       <c r="T2">
-        <v>0.02894622696553251</v>
+        <v>0.02467116541677944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H3">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I3">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J3">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N3">
         <v>15.114731</v>
       </c>
       <c r="O3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P3">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q3">
-        <v>65.35098638550745</v>
+        <v>100.7797714198557</v>
       </c>
       <c r="R3">
-        <v>588.1588774695671</v>
+        <v>907.0179427787011</v>
       </c>
       <c r="S3">
-        <v>0.03958300468149444</v>
+        <v>0.03944559955841895</v>
       </c>
       <c r="T3">
-        <v>0.03958300468149444</v>
+        <v>0.03944559955841895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H4">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I4">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J4">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N4">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P4">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q4">
-        <v>1089.337446742351</v>
+        <v>1858.507519716523</v>
       </c>
       <c r="R4">
-        <v>9804.037020681162</v>
+        <v>16726.56767744871</v>
       </c>
       <c r="S4">
-        <v>0.6598102284144256</v>
+        <v>0.7274271648586496</v>
       </c>
       <c r="T4">
-        <v>0.6598102284144257</v>
+        <v>0.7274271648586496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.97098566666667</v>
+        <v>20.002957</v>
       </c>
       <c r="H5">
-        <v>38.91295700000001</v>
+        <v>60.008871</v>
       </c>
       <c r="I5">
-        <v>0.7291028508134716</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="J5">
-        <v>0.7291028508134717</v>
+        <v>0.7920860939997775</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N5">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P5">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q5">
-        <v>1.260347440611111</v>
+        <v>1.385178101640667</v>
       </c>
       <c r="R5">
-        <v>11.3431269655</v>
+        <v>12.466602914766</v>
       </c>
       <c r="S5">
-        <v>0.0007633907520190488</v>
+        <v>0.00054216416592947</v>
       </c>
       <c r="T5">
-        <v>0.0007633907520190489</v>
+        <v>0.0005421641659294699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>3.14344</v>
       </c>
       <c r="I6">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J6">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N6">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P6">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q6">
-        <v>3.860524326968889</v>
+        <v>3.301826066382222</v>
       </c>
       <c r="R6">
-        <v>34.74471894272001</v>
+        <v>29.71643459744</v>
       </c>
       <c r="S6">
-        <v>0.002338314399816325</v>
+        <v>0.001292347730016803</v>
       </c>
       <c r="T6">
-        <v>0.002338314399816326</v>
+        <v>0.001292347730016803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.14344</v>
       </c>
       <c r="I7">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J7">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N7">
         <v>15.114731</v>
       </c>
       <c r="O7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P7">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q7">
-        <v>5.279138890515555</v>
+        <v>5.279138890515556</v>
       </c>
       <c r="R7">
-        <v>47.51225001464</v>
+        <v>47.51225001464001</v>
       </c>
       <c r="S7">
-        <v>0.003197567335630568</v>
+        <v>0.002066275759060964</v>
       </c>
       <c r="T7">
-        <v>0.003197567335630568</v>
+        <v>0.002066275759060964</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.14344</v>
       </c>
       <c r="I8">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J8">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N8">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P8">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q8">
-        <v>87.99811598968888</v>
+        <v>97.35405416605332</v>
       </c>
       <c r="R8">
-        <v>791.9830439072</v>
+        <v>876.1864874944799</v>
       </c>
       <c r="S8">
-        <v>0.05330034066563077</v>
+        <v>0.03810476032957316</v>
       </c>
       <c r="T8">
-        <v>0.05330034066563078</v>
+        <v>0.03810476032957316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.14344</v>
       </c>
       <c r="I9">
-        <v>0.05889789011308234</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="J9">
-        <v>0.05889789011308236</v>
+        <v>0.04149178396178559</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N9">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P9">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q9">
-        <v>0.1018125288888889</v>
+        <v>0.07255967624888889</v>
       </c>
       <c r="R9">
-        <v>0.9163127599999999</v>
+        <v>0.65303708624</v>
       </c>
       <c r="S9">
-        <v>6.166771200468671E-05</v>
+        <v>2.840014313465976E-05</v>
       </c>
       <c r="T9">
-        <v>6.166771200468673E-05</v>
+        <v>2.840014313465975E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H10">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I10">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J10">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N10">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P10">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q10">
-        <v>9.059797444376889</v>
+        <v>7.242485478871555</v>
       </c>
       <c r="R10">
-        <v>81.53817699939199</v>
+        <v>65.18236930984399</v>
       </c>
       <c r="S10">
-        <v>0.005487507143942508</v>
+        <v>0.002834737348401505</v>
       </c>
       <c r="T10">
-        <v>0.005487507143942509</v>
+        <v>0.002834737348401505</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H11">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I11">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J11">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N11">
         <v>15.114731</v>
       </c>
       <c r="O11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P11">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q11">
-        <v>12.38897232033655</v>
+        <v>11.57967924015989</v>
       </c>
       <c r="R11">
-        <v>111.500750883029</v>
+        <v>104.217113161439</v>
       </c>
       <c r="S11">
-        <v>0.007503983894932283</v>
+        <v>0.004532332073064135</v>
       </c>
       <c r="T11">
-        <v>0.007503983894932284</v>
+        <v>0.004532332073064134</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H12">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I12">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J12">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N12">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P12">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q12">
-        <v>206.5121312107689</v>
+        <v>213.5440539360303</v>
       </c>
       <c r="R12">
-        <v>1858.60918089692</v>
+        <v>1921.896485424273</v>
       </c>
       <c r="S12">
-        <v>0.1250841205101389</v>
+        <v>0.08358198397324895</v>
       </c>
       <c r="T12">
-        <v>0.1250841205101389</v>
+        <v>0.08358198397324895</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.458986333333333</v>
+        <v>2.298356333333333</v>
       </c>
       <c r="H13">
-        <v>7.376958999999999</v>
+        <v>6.895068999999999</v>
       </c>
       <c r="I13">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="J13">
-        <v>0.1382203320409214</v>
+        <v>0.09101134850660582</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N13">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P13">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q13">
-        <v>0.2389315053888889</v>
+        <v>0.1591581116082222</v>
       </c>
       <c r="R13">
-        <v>2.1503835485</v>
+        <v>1.432423004474</v>
       </c>
       <c r="S13">
-        <v>0.0001447204919077131</v>
+        <v>6.229511189122595E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001447204919077131</v>
+        <v>6.229511189122594E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H14">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I14">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J14">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>3.684362666666667</v>
+        <v>3.151158666666667</v>
       </c>
       <c r="N14">
-        <v>11.053088</v>
+        <v>9.453476</v>
       </c>
       <c r="O14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="P14">
-        <v>0.0397011572965827</v>
+        <v>0.03114707555614071</v>
       </c>
       <c r="Q14">
-        <v>4.835917586858667</v>
+        <v>6.001025599737333</v>
       </c>
       <c r="R14">
-        <v>43.523258281728</v>
+        <v>54.009230397636</v>
       </c>
       <c r="S14">
-        <v>0.00292910878729136</v>
+        <v>0.002348825060942957</v>
       </c>
       <c r="T14">
-        <v>0.00292910878729136</v>
+        <v>0.002348825060942957</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H15">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I15">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J15">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.038243666666666</v>
+        <v>5.038243666666667</v>
       </c>
       <c r="N15">
         <v>15.114731</v>
       </c>
       <c r="O15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066307</v>
       </c>
       <c r="P15">
-        <v>0.05429001496473516</v>
+        <v>0.04979963650066306</v>
       </c>
       <c r="Q15">
-        <v>6.612956801170666</v>
+        <v>9.594765741632333</v>
       </c>
       <c r="R15">
-        <v>59.516611210536</v>
+        <v>86.35289167469101</v>
       </c>
       <c r="S15">
-        <v>0.004005459052677869</v>
+        <v>0.003755429110119009</v>
       </c>
       <c r="T15">
-        <v>0.004005459052677869</v>
+        <v>0.003755429110119008</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H16">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I16">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J16">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>83.98262666666666</v>
+        <v>92.91163899999999</v>
       </c>
       <c r="N16">
-        <v>251.94788</v>
+        <v>278.734917</v>
       </c>
       <c r="O16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="P16">
-        <v>0.9049618002155182</v>
+        <v>0.9183688116343246</v>
       </c>
       <c r="Q16">
-        <v>110.2315645965867</v>
+        <v>176.939717460293</v>
       </c>
       <c r="R16">
-        <v>992.0840813692801</v>
+        <v>1592.457457142637</v>
       </c>
       <c r="S16">
-        <v>0.0667671106253229</v>
+        <v>0.06925490247285283</v>
       </c>
       <c r="T16">
-        <v>0.06676711062532291</v>
+        <v>0.06925490247285283</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.312552</v>
+        <v>1.904387</v>
       </c>
       <c r="H17">
-        <v>3.937656</v>
+        <v>5.713160999999999</v>
       </c>
       <c r="I17">
-        <v>0.07377892703252469</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="J17">
-        <v>0.0737789270325247</v>
+        <v>0.07541077353183102</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.09716666666666667</v>
+        <v>0.06924866666666667</v>
       </c>
       <c r="N17">
-        <v>0.2915</v>
+        <v>0.207746</v>
       </c>
       <c r="O17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715736</v>
       </c>
       <c r="P17">
-        <v>0.001047027523164011</v>
+        <v>0.0006844763088715734</v>
       </c>
       <c r="Q17">
-        <v>0.1275363026666667</v>
+        <v>0.1318762605673333</v>
       </c>
       <c r="R17">
-        <v>1.147826724</v>
+        <v>1.186886345106</v>
       </c>
       <c r="S17">
-        <v>7.724856723256264E-05</v>
+        <v>5.161688791621785E-05</v>
       </c>
       <c r="T17">
-        <v>7.724856723256265E-05</v>
+        <v>5.161688791621785E-05</v>
       </c>
     </row>
   </sheetData>
